--- a/tests/integration/data/Renderer014-ForEach-merged/template.xlsx
+++ b/tests/integration/data/Renderer014-ForEach-merged/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer014-ForEach-merged\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer014-ForEach-merged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3E33D0-11C3-4BC3-AEB0-386947B57FA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88906FCA-86B2-9140-B2DD-AB63557597A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="16100" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
   <sheets>
     <sheet name="Most common for each" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>#! END_ROW</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>## data</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -443,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB5A86-9F62-4CA9-8E69-0560B4CC82E1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -465,8 +468,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -477,13 +483,16 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -493,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -505,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>4</v>
       </c>
